--- a/Table/Item_Data.xlsx
+++ b/Table/Item_Data.xlsx
@@ -978,7 +978,7 @@
   <dimension ref="A1:T151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M113" sqref="M113"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="3">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="I2" s="3">
         <v>0</v>
@@ -1140,7 +1140,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="3">
-        <v>0.03</v>
+        <v>1.03</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="3">
-        <v>0.05</v>
+        <v>1.05</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
@@ -1264,7 +1264,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>1.07</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="3">
-        <v>0.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="3">
-        <v>0.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
@@ -1450,7 +1450,7 @@
         <v>7</v>
       </c>
       <c r="H8" s="3">
-        <v>0.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>8</v>
       </c>
       <c r="H9" s="3">
-        <v>0.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -1574,7 +1574,7 @@
         <v>9</v>
       </c>
       <c r="H10" s="3">
-        <v>0.17</v>
+        <v>1.17</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -1636,7 +1636,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="3">
-        <v>0.2</v>
+        <v>1.19</v>
       </c>
       <c r="I11" s="3">
         <v>0.05</v>
@@ -1698,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="13">
-        <v>0.03</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="I12" s="13">
         <v>0</v>
@@ -1760,7 +1760,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="13">
-        <v>0.05</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I13" s="13">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="13">
-        <v>7.0000000000000007E-2</v>
+        <v>1.17</v>
       </c>
       <c r="I14" s="13">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="13">
-        <v>0.09</v>
+        <v>1.19</v>
       </c>
       <c r="I15" s="13">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>5</v>
       </c>
       <c r="H16" s="13">
-        <v>0.11</v>
+        <v>1.21</v>
       </c>
       <c r="I16" s="13">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>6</v>
       </c>
       <c r="H17" s="13">
-        <v>0.13</v>
+        <v>1.23</v>
       </c>
       <c r="I17" s="13">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>7</v>
       </c>
       <c r="H18" s="13">
-        <v>0.15</v>
+        <v>1.25</v>
       </c>
       <c r="I18" s="13">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>8</v>
       </c>
       <c r="H19" s="13">
-        <v>0.17</v>
+        <v>1.27</v>
       </c>
       <c r="I19" s="13">
         <v>0</v>
@@ -2194,7 +2194,7 @@
         <v>9</v>
       </c>
       <c r="H20" s="13">
-        <v>0.19</v>
+        <v>1.29</v>
       </c>
       <c r="I20" s="13">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="13">
-        <v>0.24</v>
+        <v>1.31</v>
       </c>
       <c r="I21" s="13">
         <v>0.1</v>
@@ -2938,7 +2938,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="27">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="I32" s="27">
         <v>0</v>

--- a/Table/Item_Data.xlsx
+++ b/Table/Item_Data.xlsx
@@ -978,7 +978,7 @@
   <dimension ref="A1:T151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="3">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="I2" s="3">
         <v>0</v>
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M2" s="3">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M32" s="5">
         <v>0</v>
